--- a/app/views/zgis/excels/zgis.xlsx
+++ b/app/views/zgis/excels/zgis.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB2799-1539-42D2-B4C7-0793371B4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D68C1-4F5C-4142-80B2-5AF566C2141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46310" yWindow="5020" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45740" yWindow="3620" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="天晴れ連携ワークシート" sheetId="3" r:id="rId1"/>
+    <sheet name="作付計画" sheetId="3" r:id="rId1"/>
+    <sheet name="作付集計" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>__xl$gis__</t>
   </si>
@@ -71,15 +85,40 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>作付</t>
+    <rPh sb="0" eb="2">
+      <t>サクツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計面積</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,6 +149,13 @@
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -148,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,12 +211,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -184,6 +224,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -489,17 +545,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
@@ -513,35 +569,189 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD03251-0D02-4179-93A9-8974B6F6F352}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A2,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A3,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A4,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A5,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A6,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A7,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A8,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A9,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A10,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A11,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A12,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A13,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A14,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A15,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A16,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A17,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A18,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A19,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
+        <f>SUMIF(作付計画!E:E,作付集計!A20,作付計画!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16">
+        <f>SUM(B2:B20)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
